--- a/DTT-Test-Hour-Log.xlsx
+++ b/DTT-Test-Hour-Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\DTT Test - Android (EN) 2020 v1.0\DTT Test - Android (EN) 2020 v1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\AndroidStudioProjects\real-estate-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF2116B-9CB9-4207-88B5-5B239CF748D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E2EBFB-0599-4AC8-A905-694E286AD2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>Subject</t>
   </si>
@@ -195,6 +195,72 @@
   </si>
   <si>
     <t>Design &amp; last look</t>
+  </si>
+  <si>
+    <t>Going over feedback, , testing app, checking bugs, reviewing/rereading code, creating workplan</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renamed myResponse, created more packages, researched possible reasons of some bugs </t>
+  </si>
+  <si>
+    <t>Structure &amp; Research</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Change dtt hyperlink color, fixed No Results image, fixed price tag cutting off screen</t>
+  </si>
+  <si>
+    <t>Fixed dark mode tekst not visible</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Cleaned up code inside adapter and detailfragment. Split code in smaller functions, code is more readable now. Did the same in RetrofitInstance</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Turned patterns into constants, added extensions file &amp; put helper functions there</t>
+  </si>
+  <si>
+    <t>Need Permissions text doesnt cutt off screen anymore</t>
+  </si>
+  <si>
+    <t>Researched and created dimens file with all textSizes &amp; other frequently used sizes like margins or width &amp; height</t>
+  </si>
+  <si>
+    <t>Research and fix when clicking on map, redirects to Google maps, use an intent with clickListener for that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research &amp; redid bottomNavView hide/display by creating a BaseFragment that hides it when implemented </t>
+  </si>
+  <si>
+    <t>Added styles, used the colors that were given to me</t>
+  </si>
+  <si>
+    <t>Renamed repository to HouseRepository, added some error handling to when divice is in Airplane mode, nothing major</t>
+  </si>
+  <si>
+    <t>Fixed last item in rv being overlapped by bottomNavView by removing marginTop, adding vertical and changing height to match_parent</t>
+  </si>
+  <si>
+    <t>Fixed After granting location permissions the page needs to be manually refreshed to see the distance. Problem was in askLocationPermission() inside ActivityCompat.requestPermissions(). Originally was trying to fix problem inside viewModel, that's why there's that much code inside it now.</t>
+  </si>
+  <si>
+    <t>CalculateDistance is now calculated in HouseResponse and not everytime the view gets bound</t>
+  </si>
+  <si>
+    <t>Research &amp; adding Javadoc comments</t>
+  </si>
+  <si>
+    <t>Adding Javadoc and inline comments</t>
   </si>
 </sst>
 </file>
@@ -528,6 +594,18 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,18 +617,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1809,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1826,22 +1892,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="11"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -2100,16 +2166,16 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="22">
         <v>5</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="23">
         <v>44372</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="3"/>
@@ -2122,7 +2188,7 @@
       <c r="B20" s="18">
         <v>4</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="23">
         <v>44373</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -2138,7 +2204,7 @@
       <c r="B21" s="18">
         <v>3</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="23">
         <v>44374</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -2154,7 +2220,7 @@
       <c r="B22" s="18">
         <v>4</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="23">
         <v>44375</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -2170,7 +2236,7 @@
       <c r="B23" s="18">
         <v>4</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="23">
         <v>44376</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -2186,7 +2252,7 @@
       <c r="B24" s="18">
         <v>4</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="23">
         <v>44377</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -2202,7 +2268,7 @@
       <c r="B25" s="18">
         <v>3</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="23">
         <v>44378</v>
       </c>
       <c r="D25" s="16" t="s">
@@ -2220,65 +2286,337 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="18">
+        <v>3</v>
+      </c>
+      <c r="C27" s="19">
+        <v>44390</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="18">
+        <v>2</v>
+      </c>
+      <c r="C28" s="19">
+        <v>44390</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="4"/>
+    <row r="29" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1</v>
+      </c>
+      <c r="C29" s="19">
+        <v>44391</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
+      <c r="C30" s="19">
+        <v>44391</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="18">
         <v>4</v>
       </c>
-      <c r="B30" s="15">
-        <f>SUM(B4:B28)</f>
-        <v>58.5</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="C31" s="19">
+        <v>44392</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+    <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="18">
+        <v>3</v>
+      </c>
+      <c r="C32" s="19">
+        <v>44393</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
+    <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="18">
+        <v>2</v>
+      </c>
+      <c r="C33" s="19">
+        <v>44396</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="18">
+        <v>1</v>
+      </c>
+      <c r="C34" s="19">
+        <v>44396</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="18">
+        <v>2</v>
+      </c>
+      <c r="C35" s="19">
+        <v>44397</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="18">
+        <v>2</v>
+      </c>
+      <c r="C36" s="19">
+        <v>44398</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="18">
+        <v>1</v>
+      </c>
+      <c r="C37" s="19">
+        <v>44398</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="18">
+        <v>1</v>
+      </c>
+      <c r="C38" s="19">
+        <v>44398</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="18">
+        <v>1</v>
+      </c>
+      <c r="C39" s="19">
+        <v>44398</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="22">
+        <v>2</v>
+      </c>
+      <c r="C40" s="23">
+        <v>44398</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="18">
+        <v>3</v>
+      </c>
+      <c r="C41" s="19">
+        <v>44399</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="18">
+        <v>2</v>
+      </c>
+      <c r="C42" s="19">
+        <v>44400</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="18">
+        <v>3</v>
+      </c>
+      <c r="C43" s="19">
+        <v>44401</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="15">
+        <f>SUM(B4:B45)</f>
+        <v>92.5</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
